--- a/results/mp/deberta/corona/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
@@ -97,16 +97,16 @@
     <t>safety</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>hope</t>
@@ -1157,25 +1157,25 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6478260869565218</v>
+        <v>0.6408450704225352</v>
       </c>
       <c r="L18">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="M18">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1183,25 +1183,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6408450704225352</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1215,16 +1215,16 @@
         <v>30</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>17</v>
@@ -1235,13 +1235,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1287,25 +1287,25 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5596330275229358</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L23">
         <v>183</v>
       </c>
       <c r="M23">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="10:17">
